--- a/02_MasterWifoMannheim/99_Backup/Course69.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course69.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3D0DB4B639A20115908A0F24369FFDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17CFA38C-DAA8-4CA1-B458-C3BB635BDBF2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 542 Quantitative Corporate Finance for Researchers</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course enables participants to understand quantitative research in corporate finance with a particular focus on empirical methodology. It provides students with a comprehensive understanding of the main techniques to address endogeneity concerns and to provide valid identification. techniques to illustrate different corporate finance issues such as the principal agent problem, capital structure, or the optimal firm ownership. It is intended for students with an interest in research and in quantitative work in corporate finance. MBA/M.Sc.-level master courses (e.g., valuation methodologies, practicalities of security offerings) are not taught in this course.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students should develop an understanding of important issues in corporate finance and how to apply different empirical and theoretical methods to critically assess them. two objectives. modern corporate finance and understand some of the main contributions in the respective area. Second, the course introduces key empirical contributions to the field. students gain access to state-of-the art empirical methods and quantitative research in corporate finance.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration: yes, limited to 10 participants.</t>
-  </si>
-  <si>
-    <t>Further Information on registration:Website of the chair, “Student Portal” (more information about the registration process is available here).</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Oral presentation (20%), Final Exam (80%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Ernst Maug, Ph.D.</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ</t>
-  </si>
-  <si>
-    <t>FIN 603, Scientific Work (SW), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 542 Quantitative Corporate Finance for Researchers</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course enables participants to understand quantitative research in corporate finance with a particular focus on empirical methodology. It provides students with a comprehensive understanding of the main techniques to address endogeneity concerns and to provide valid identification. techniques to illustrate different corporate finance issues such as the principal agent problem, capital structure, or the optimal firm ownership. It is intended for students with an interest in research and in quantitative work in corporate finance. MBA/M.Sc.-level master courses (e.g., valuation methodologies, practicalities of security offerings) are not taught in this course.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students should develop an understanding of important issues in corporate finance and how to apply different empirical and theoretical methods to critically assess them. two objectives. modern corporate finance and understand some of the main contributions in the respective area. Second, the course introduces key empirical contributions to the field. students gain access to state-of-the art empirical methods and quantitative research in corporate finance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FIN 603, Scientific Work (SW), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration: yes, limited to 10 participants.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration:Website of the chair, “Student Portal” (more information about the registration process is available here).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oral presentation (20%), Final Exam (80%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Ernst Maug, Ph.D.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ</t>
+        </is>
       </c>
     </row>
   </sheetData>
